--- a/outcome/appendix/data/forecast/Hepatitis C.xlsx
+++ b/outcome/appendix/data/forecast/Hepatitis C.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>21983.6428369232</v>
+        <v>21943.0027336559</v>
       </c>
       <c r="C2" t="n">
-        <v>20326.8131242253</v>
+        <v>20164.2177313617</v>
       </c>
       <c r="D2" t="n">
-        <v>19377.7346619687</v>
+        <v>19485.9701533883</v>
       </c>
       <c r="E2" t="n">
-        <v>23624.2949769223</v>
+        <v>23630.8510219101</v>
       </c>
       <c r="F2" t="n">
-        <v>24387.0581622483</v>
+        <v>24436.9055404602</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>17287</v>
       </c>
       <c r="I2" t="n">
-        <v>4696.64283692322</v>
+        <v>4656.00273365589</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>19460.7427898312</v>
+        <v>19444.1654196348</v>
       </c>
       <c r="C3" t="n">
-        <v>17868.9979282262</v>
+        <v>17749.4459993613</v>
       </c>
       <c r="D3" t="n">
-        <v>16999.0115353494</v>
+        <v>16857.4160224626</v>
       </c>
       <c r="E3" t="n">
-        <v>21111.5780757116</v>
+        <v>21190.1245750924</v>
       </c>
       <c r="F3" t="n">
-        <v>22281.10544706</v>
+        <v>22180.9312890714</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>9068</v>
       </c>
       <c r="I3" t="n">
-        <v>10392.7427898312</v>
+        <v>10376.1654196348</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>25495.3786721343</v>
+        <v>25527.1982810688</v>
       </c>
       <c r="C4" t="n">
-        <v>23924.1514070851</v>
+        <v>23919.4957971762</v>
       </c>
       <c r="D4" t="n">
-        <v>22908.3326668131</v>
+        <v>22951.1428209698</v>
       </c>
       <c r="E4" t="n">
-        <v>26975.6923089331</v>
+        <v>27312.4061598422</v>
       </c>
       <c r="F4" t="n">
-        <v>28003.8779532513</v>
+        <v>27975.2707080679</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>16718</v>
       </c>
       <c r="I4" t="n">
-        <v>8777.37867213431</v>
+        <v>8809.19828106884</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>23624.8030050139</v>
+        <v>23544.9630493988</v>
       </c>
       <c r="C5" t="n">
-        <v>21990.5916424407</v>
+        <v>21895.7869453906</v>
       </c>
       <c r="D5" t="n">
-        <v>21116.9807440607</v>
+        <v>21254.2120268862</v>
       </c>
       <c r="E5" t="n">
-        <v>25300.7028032452</v>
+        <v>25040.0455411638</v>
       </c>
       <c r="F5" t="n">
-        <v>25973.7702061332</v>
+        <v>25937.9958866742</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>20179</v>
       </c>
       <c r="I5" t="n">
-        <v>3445.8030050139</v>
+        <v>3365.96304939877</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>23442.7961363738</v>
+        <v>23365.5369954327</v>
       </c>
       <c r="C6" t="n">
-        <v>21866.4574742606</v>
+        <v>21664.5456868561</v>
       </c>
       <c r="D6" t="n">
-        <v>20993.2736563882</v>
+        <v>20810.0604225925</v>
       </c>
       <c r="E6" t="n">
-        <v>25074.897730344</v>
+        <v>25085.019293077</v>
       </c>
       <c r="F6" t="n">
-        <v>25981.8621207358</v>
+        <v>25662.6879149145</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>19821</v>
       </c>
       <c r="I6" t="n">
-        <v>3621.79613637379</v>
+        <v>3544.53699543271</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>22304.7007559744</v>
+        <v>22226.7849763823</v>
       </c>
       <c r="C7" t="n">
-        <v>20526.1813477058</v>
+        <v>20498.7138479725</v>
       </c>
       <c r="D7" t="n">
-        <v>19583.7522088728</v>
+        <v>19494.3327295576</v>
       </c>
       <c r="E7" t="n">
-        <v>24113.5249205371</v>
+        <v>23849.372764747</v>
       </c>
       <c r="F7" t="n">
-        <v>24928.6612028056</v>
+        <v>24832.7036331142</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>20367</v>
       </c>
       <c r="I7" t="n">
-        <v>1937.70075597435</v>
+        <v>1859.7849763823</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>23250.0485691928</v>
+        <v>23218.4974158555</v>
       </c>
       <c r="C8" t="n">
-        <v>21466.7547984356</v>
+        <v>21604.9578417911</v>
       </c>
       <c r="D8" t="n">
-        <v>20561.6809622217</v>
+        <v>20573.5241597906</v>
       </c>
       <c r="E8" t="n">
-        <v>24841.8768905258</v>
+        <v>24885.7779335468</v>
       </c>
       <c r="F8" t="n">
-        <v>25454.4611939558</v>
+        <v>25908.9385935614</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>20520</v>
       </c>
       <c r="I8" t="n">
-        <v>2730.04856919279</v>
+        <v>2698.49741585553</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>22676.2814001803</v>
+        <v>22699.4038450324</v>
       </c>
       <c r="C9" t="n">
-        <v>20892.6340576002</v>
+        <v>20877.002770218</v>
       </c>
       <c r="D9" t="n">
-        <v>19989.3935857011</v>
+        <v>20358.3153339768</v>
       </c>
       <c r="E9" t="n">
-        <v>24453.7501285894</v>
+        <v>24634.1157206144</v>
       </c>
       <c r="F9" t="n">
-        <v>25694.469962548</v>
+        <v>25631.3486463105</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>20520</v>
       </c>
       <c r="I9" t="n">
-        <v>2156.28140018032</v>
+        <v>2179.40384503238</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>21765.7091158489</v>
+        <v>21750.8754924585</v>
       </c>
       <c r="C10" t="n">
-        <v>19882.9508740933</v>
+        <v>19861.06203499</v>
       </c>
       <c r="D10" t="n">
-        <v>18930.201873904</v>
+        <v>18835.2246203277</v>
       </c>
       <c r="E10" t="n">
-        <v>23630.737166721</v>
+        <v>23732.7788346083</v>
       </c>
       <c r="F10" t="n">
-        <v>24556.6052581656</v>
+        <v>24402.5830621441</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>21538</v>
       </c>
       <c r="I10" t="n">
-        <v>227.709115848866</v>
+        <v>212.875492458497</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>21010.9799830677</v>
+        <v>21012.2132640794</v>
       </c>
       <c r="C11" t="n">
-        <v>19285.0800754816</v>
+        <v>19098.4939052091</v>
       </c>
       <c r="D11" t="n">
-        <v>18351.5933803413</v>
+        <v>18070.526713179</v>
       </c>
       <c r="E11" t="n">
-        <v>22709.1381428497</v>
+        <v>22707.3799552914</v>
       </c>
       <c r="F11" t="n">
-        <v>23604.3400271924</v>
+        <v>23860.2438967538</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>20067</v>
       </c>
       <c r="I11" t="n">
-        <v>943.979983067675</v>
+        <v>945.213264079393</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>22530.4537515696</v>
+        <v>22375.0962019647</v>
       </c>
       <c r="C12" t="n">
-        <v>20503.1939973762</v>
+        <v>20265.6757034489</v>
       </c>
       <c r="D12" t="n">
-        <v>19680.4573388843</v>
+        <v>19431.2839078336</v>
       </c>
       <c r="E12" t="n">
-        <v>24403.2906909424</v>
+        <v>24375.5729631666</v>
       </c>
       <c r="F12" t="n">
-        <v>25111.7240680673</v>
+        <v>25732.4004660116</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>20801</v>
       </c>
       <c r="I12" t="n">
-        <v>1729.45375156957</v>
+        <v>1574.09620196473</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>22279.3377893151</v>
+        <v>22289.4554558941</v>
       </c>
       <c r="C13" t="n">
-        <v>20338.191002469</v>
+        <v>20294.0717806701</v>
       </c>
       <c r="D13" t="n">
-        <v>19596.7440845869</v>
+        <v>19045.8882148895</v>
       </c>
       <c r="E13" t="n">
-        <v>24151.8584379084</v>
+        <v>24181.826826259</v>
       </c>
       <c r="F13" t="n">
-        <v>25188.6155497122</v>
+        <v>25233.8773915165</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>20438</v>
       </c>
       <c r="I13" t="n">
-        <v>1841.33778931505</v>
+        <v>1851.45545589407</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>22591.7418732553</v>
+        <v>22563.7449714738</v>
       </c>
       <c r="C14" t="n">
-        <v>20435.4588860117</v>
+        <v>20550.7688609637</v>
       </c>
       <c r="D14" t="n">
-        <v>19207.6947455057</v>
+        <v>19209.4478739384</v>
       </c>
       <c r="E14" t="n">
-        <v>24772.9352220015</v>
+        <v>24466.5593942215</v>
       </c>
       <c r="F14" t="n">
-        <v>25810.8101099309</v>
+        <v>25866.4247475166</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>18258</v>
       </c>
       <c r="I14" t="n">
-        <v>4333.74187325526</v>
+        <v>4305.74497147376</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>20320.6658314632</v>
+        <v>20219.9880831584</v>
       </c>
       <c r="C15" t="n">
-        <v>18340.8543344501</v>
+        <v>18242.524390731</v>
       </c>
       <c r="D15" t="n">
-        <v>16899.7019848745</v>
+        <v>16913.6016906779</v>
       </c>
       <c r="E15" t="n">
-        <v>22238.6347850035</v>
+        <v>22246.3683752906</v>
       </c>
       <c r="F15" t="n">
-        <v>23343.6257723484</v>
+        <v>23231.4623927359</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>14714</v>
       </c>
       <c r="I15" t="n">
-        <v>5606.66583146319</v>
+        <v>5505.98808315843</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>26356.3961861812</v>
+        <v>26214.7080200384</v>
       </c>
       <c r="C16" t="n">
-        <v>24346.5913749554</v>
+        <v>24049.3564790056</v>
       </c>
       <c r="D16" t="n">
-        <v>23130.6457782738</v>
+        <v>22923.9741399222</v>
       </c>
       <c r="E16" t="n">
-        <v>28305.2608440285</v>
+        <v>28135.9245342946</v>
       </c>
       <c r="F16" t="n">
-        <v>29338.4956429836</v>
+        <v>29128.019010204</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>23776</v>
       </c>
       <c r="I16" t="n">
-        <v>2580.39618618123</v>
+        <v>2438.70802003843</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>24342.9121571778</v>
+        <v>24332.669594912</v>
       </c>
       <c r="C17" t="n">
-        <v>22228.4346571057</v>
+        <v>22016.6908000191</v>
       </c>
       <c r="D17" t="n">
-        <v>21189.8954594763</v>
+        <v>21020.7293119314</v>
       </c>
       <c r="E17" t="n">
-        <v>26448.7766970159</v>
+        <v>26473.0223823839</v>
       </c>
       <c r="F17" t="n">
-        <v>27381.4913236601</v>
+        <v>27766.2757063234</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>22613</v>
       </c>
       <c r="I17" t="n">
-        <v>1729.91215717779</v>
+        <v>1719.66959491196</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>24151.3486175192</v>
+        <v>24213.3721157479</v>
       </c>
       <c r="C18" t="n">
-        <v>22039.5847867657</v>
+        <v>22196.1109176684</v>
       </c>
       <c r="D18" t="n">
-        <v>20927.1614542746</v>
+        <v>20858.1890385124</v>
       </c>
       <c r="E18" t="n">
-        <v>26212.5358455708</v>
+        <v>26108.382218681</v>
       </c>
       <c r="F18" t="n">
-        <v>27369.1978222995</v>
+        <v>27221.7662014171</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>21254</v>
       </c>
       <c r="I18" t="n">
-        <v>2897.34861751924</v>
+        <v>2959.3721157479</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>22959.7355989717</v>
+        <v>23010.9697601594</v>
       </c>
       <c r="C19" t="n">
-        <v>20549.9556360831</v>
+        <v>20688.0574117382</v>
       </c>
       <c r="D19" t="n">
-        <v>19683.7559075127</v>
+        <v>19177.5612638914</v>
       </c>
       <c r="E19" t="n">
-        <v>25052.364940834</v>
+        <v>25125.7995079997</v>
       </c>
       <c r="F19" t="n">
-        <v>26251.6739742913</v>
+        <v>26767.1614733088</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>20937</v>
       </c>
       <c r="I19" t="n">
-        <v>2022.73559897174</v>
+        <v>2073.96976015942</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>23931.9405289143</v>
+        <v>24060.0845330893</v>
       </c>
       <c r="C20" t="n">
-        <v>21622.5270383909</v>
+        <v>21888.9078791353</v>
       </c>
       <c r="D20" t="n">
-        <v>20322.0550471998</v>
+        <v>20476.1869730322</v>
       </c>
       <c r="E20" t="n">
-        <v>26262.5910020678</v>
+        <v>26257.895905041</v>
       </c>
       <c r="F20" t="n">
-        <v>27354.2658815004</v>
+        <v>27261.8641533812</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>22940</v>
       </c>
       <c r="I20" t="n">
-        <v>991.940528914256</v>
+        <v>1120.08453308931</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>23642.2148705841</v>
+        <v>23548.6964352832</v>
       </c>
       <c r="C21" t="n">
-        <v>21447.4170824344</v>
+        <v>21312.0477807444</v>
       </c>
       <c r="D21" t="n">
-        <v>20143.0693211974</v>
+        <v>19542.2587229446</v>
       </c>
       <c r="E21" t="n">
-        <v>25904.6306622325</v>
+        <v>25585.3666072908</v>
       </c>
       <c r="F21" t="n">
-        <v>27048.0865860644</v>
+        <v>26656.6807164319</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>20001</v>
       </c>
       <c r="I21" t="n">
-        <v>3641.21487058411</v>
+        <v>3547.69643528323</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>22353.3998187578</v>
+        <v>22442.8464929532</v>
       </c>
       <c r="C22" t="n">
-        <v>20298.5954685641</v>
+        <v>19938.7905861823</v>
       </c>
       <c r="D22" t="n">
-        <v>18451.0182599319</v>
+        <v>18852.2831699498</v>
       </c>
       <c r="E22" t="n">
-        <v>24519.1754649381</v>
+        <v>24658.0432601558</v>
       </c>
       <c r="F22" t="n">
-        <v>25506.9446247001</v>
+        <v>25682.8035217822</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>20125</v>
       </c>
       <c r="I22" t="n">
-        <v>2228.3998187578</v>
+        <v>2317.84649295316</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>21780.7715664017</v>
+        <v>21889.9571699873</v>
       </c>
       <c r="C23" t="n">
-        <v>19693.2491414765</v>
+        <v>19514.2021914127</v>
       </c>
       <c r="D23" t="n">
-        <v>18113.1710066533</v>
+        <v>17642.1712038239</v>
       </c>
       <c r="E23" t="n">
-        <v>23959.5324816166</v>
+        <v>24301.0830318275</v>
       </c>
       <c r="F23" t="n">
-        <v>25362.3501583168</v>
+        <v>25508.6472210251</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>19157</v>
       </c>
       <c r="I23" t="n">
-        <v>2623.77156640167</v>
+        <v>2732.95716998727</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>23098.4931117668</v>
+        <v>23090.2400378609</v>
       </c>
       <c r="C24" t="n">
-        <v>20647.6465478641</v>
+        <v>20545.3546732963</v>
       </c>
       <c r="D24" t="n">
-        <v>19651.98458003</v>
+        <v>19326.7919459802</v>
       </c>
       <c r="E24" t="n">
-        <v>25297.5008841308</v>
+        <v>25667.7083755334</v>
       </c>
       <c r="F24" t="n">
-        <v>26482.8075971825</v>
+        <v>26647.6178537264</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>19858</v>
       </c>
       <c r="I24" t="n">
-        <v>3240.49311176681</v>
+        <v>3232.24003786087</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>23120.2673407236</v>
+        <v>23086.2332955222</v>
       </c>
       <c r="C25" t="n">
-        <v>20426.3939686458</v>
+        <v>20495.0489805583</v>
       </c>
       <c r="D25" t="n">
-        <v>19274.1264050224</v>
+        <v>19432.2196678551</v>
       </c>
       <c r="E25" t="n">
-        <v>25816.5598322807</v>
+        <v>25514.9994611392</v>
       </c>
       <c r="F25" t="n">
-        <v>27033.4366937536</v>
+        <v>26622.8237564221</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>20895</v>
       </c>
       <c r="I25" t="n">
-        <v>2225.26734072361</v>
+        <v>2191.23329552222</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>23477.8629450596</v>
+        <v>23478.7197329967</v>
       </c>
       <c r="C26" t="n">
-        <v>20789.9278688992</v>
+        <v>21096.3024576265</v>
       </c>
       <c r="D26" t="n">
-        <v>19313.5243624682</v>
+        <v>19690.1074338882</v>
       </c>
       <c r="E26" t="n">
-        <v>25989.9244836775</v>
+        <v>25933.0915518984</v>
       </c>
       <c r="F26" t="n">
-        <v>27410.9291698793</v>
+        <v>26790.4159311143</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>18704</v>
       </c>
       <c r="I26" t="n">
-        <v>4773.86294505965</v>
+        <v>4774.71973299671</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>20969.3615498993</v>
+        <v>21082.0131041987</v>
       </c>
       <c r="C27" t="n">
-        <v>18510.2802283496</v>
+        <v>18428.1892202507</v>
       </c>
       <c r="D27" t="n">
-        <v>17142.3533333268</v>
+        <v>17206.8339183532</v>
       </c>
       <c r="E27" t="n">
-        <v>23517.3733719732</v>
+        <v>23493.4352281753</v>
       </c>
       <c r="F27" t="n">
-        <v>24945.2754058761</v>
+        <v>24772.1893175034</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>16733</v>
       </c>
       <c r="I27" t="n">
-        <v>4236.36154989932</v>
+        <v>4349.01310419869</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>27042.6061010316</v>
+        <v>26992.888508662</v>
       </c>
       <c r="C28" t="n">
-        <v>24264.0423233792</v>
+        <v>24169.6798404746</v>
       </c>
       <c r="D28" t="n">
-        <v>22537.504632596</v>
+        <v>21960.4676849229</v>
       </c>
       <c r="E28" t="n">
-        <v>29724.2140991843</v>
+        <v>29841.2932553088</v>
       </c>
       <c r="F28" t="n">
-        <v>30600.2866911938</v>
+        <v>30921.7984415321</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>21722</v>
       </c>
       <c r="I28" t="n">
-        <v>5320.6061010316</v>
+        <v>5270.88850866205</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>25110.5065643895</v>
+        <v>25211.0141512878</v>
       </c>
       <c r="C29" t="n">
-        <v>22544.8636367023</v>
+        <v>22274.5615216799</v>
       </c>
       <c r="D29" t="n">
-        <v>20923.0610289668</v>
+        <v>20751.6628632121</v>
       </c>
       <c r="E29" t="n">
-        <v>27665.4066219148</v>
+        <v>27903.2822155692</v>
       </c>
       <c r="F29" t="n">
-        <v>29016.6018937079</v>
+        <v>29310.4121123129</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>17712</v>
       </c>
       <c r="I29" t="n">
-        <v>7398.50656438952</v>
+        <v>7499.01415128777</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>25053.5936367871</v>
+        <v>24937.5318633132</v>
       </c>
       <c r="C30" t="n">
-        <v>22320.1867916724</v>
+        <v>22109.9153680409</v>
       </c>
       <c r="D30" t="n">
-        <v>21183.8070070692</v>
+        <v>20635.7574920127</v>
       </c>
       <c r="E30" t="n">
-        <v>27739.0949215206</v>
+        <v>27534.9644361192</v>
       </c>
       <c r="F30" t="n">
-        <v>29216.5814824732</v>
+        <v>28887.392399352</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>18720</v>
       </c>
       <c r="I30" t="n">
-        <v>6333.59363678712</v>
+        <v>6217.53186331319</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>23714.1634460507</v>
+        <v>23763.2163953297</v>
       </c>
       <c r="C31" t="n">
-        <v>20682.2513849256</v>
+        <v>20845.206583704</v>
       </c>
       <c r="D31" t="n">
-        <v>19471.275441799</v>
+        <v>19247.1598490891</v>
       </c>
       <c r="E31" t="n">
-        <v>26508.6468264082</v>
+        <v>26456.8894452363</v>
       </c>
       <c r="F31" t="n">
-        <v>27951.4927807059</v>
+        <v>27791.1807549708</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>20925</v>
       </c>
       <c r="I31" t="n">
-        <v>2789.16344605074</v>
+        <v>2838.2163953297</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>24613.9970962085</v>
+        <v>24802.7129915198</v>
       </c>
       <c r="C32" t="n">
-        <v>21727.5751280248</v>
+        <v>21944.4555915607</v>
       </c>
       <c r="D32" t="n">
-        <v>19663.2128466961</v>
+        <v>19942.8037758264</v>
       </c>
       <c r="E32" t="n">
-        <v>27440.2844722876</v>
+        <v>27441.1774886221</v>
       </c>
       <c r="F32" t="n">
-        <v>28751.0560651851</v>
+        <v>28828.8226299865</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>21867</v>
       </c>
       <c r="I32" t="n">
-        <v>2746.99709620853</v>
+        <v>2935.71299151981</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>24237.7716323773</v>
+        <v>24370.1544565008</v>
       </c>
       <c r="C33" t="n">
-        <v>21466.6662541001</v>
+        <v>21069.7661162763</v>
       </c>
       <c r="D33" t="n">
-        <v>19342.4520024052</v>
+        <v>19507.8506747289</v>
       </c>
       <c r="E33" t="n">
-        <v>27158.7723203192</v>
+        <v>27178.1112861714</v>
       </c>
       <c r="F33" t="n">
-        <v>28443.354280478</v>
+        <v>28342.113061926</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>21891</v>
       </c>
       <c r="I33" t="n">
-        <v>2346.77163237732</v>
+        <v>2479.15445650077</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>23093.5510438014</v>
+        <v>23126.3987906599</v>
       </c>
       <c r="C34" t="n">
-        <v>20061.316906919</v>
+        <v>19964.1128969358</v>
       </c>
       <c r="D34" t="n">
-        <v>18355.7549076785</v>
+        <v>18375.9828686552</v>
       </c>
       <c r="E34" t="n">
-        <v>26052.4058397965</v>
+        <v>26211.0810138729</v>
       </c>
       <c r="F34" t="n">
-        <v>27478.0369601915</v>
+        <v>27530.2125530438</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>18740</v>
       </c>
       <c r="I34" t="n">
-        <v>4353.55104380141</v>
+        <v>4386.39879065994</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>22541.0437728726</v>
+        <v>22641.1010652851</v>
       </c>
       <c r="C35" t="n">
-        <v>19386.2693613457</v>
+        <v>19438.0677747911</v>
       </c>
       <c r="D35" t="n">
-        <v>17545.277880328</v>
+        <v>17599.3976585032</v>
       </c>
       <c r="E35" t="n">
-        <v>25573.6209308529</v>
+        <v>25571.268323574</v>
       </c>
       <c r="F35" t="n">
-        <v>27078.4021902662</v>
+        <v>27002.1391245049</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>16020</v>
       </c>
       <c r="I35" t="n">
-        <v>6521.0437728726</v>
+        <v>6621.10106528507</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>24008.2996268516</v>
+        <v>23961.4767288876</v>
       </c>
       <c r="C36" t="n">
-        <v>21022.2477080199</v>
+        <v>20751.9790775295</v>
       </c>
       <c r="D36" t="n">
-        <v>19347.636165766</v>
+        <v>19581.4947848291</v>
       </c>
       <c r="E36" t="n">
-        <v>26954.8682375692</v>
+        <v>26721.1903774341</v>
       </c>
       <c r="F36" t="n">
-        <v>28379.8965402971</v>
+        <v>28645.0553039368</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>15057</v>
       </c>
       <c r="I36" t="n">
-        <v>8951.29962685158</v>
+        <v>8904.4767288876</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>23941.3034344587</v>
+        <v>23906.7517922526</v>
       </c>
       <c r="C37" t="n">
-        <v>20708.1123081177</v>
+        <v>20668.845704198</v>
       </c>
       <c r="D37" t="n">
-        <v>18941.4939795839</v>
+        <v>18756.554977051</v>
       </c>
       <c r="E37" t="n">
-        <v>27132.367479932</v>
+        <v>27040.7966043124</v>
       </c>
       <c r="F37" t="n">
-        <v>28477.785618755</v>
+        <v>28783.3688507529</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>11050</v>
       </c>
       <c r="I37" t="n">
-        <v>12891.3034344587</v>
+        <v>12856.7517922526</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24134.4658412819</v>
+        <v>24381.5596832695</v>
       </c>
       <c r="C38" t="n">
-        <v>20637.9759054676</v>
+        <v>21050.3134229285</v>
       </c>
       <c r="D38" t="n">
-        <v>19119.6292225546</v>
+        <v>19180.4303619456</v>
       </c>
       <c r="E38" t="n">
-        <v>27283.761361083</v>
+        <v>27378.2266404504</v>
       </c>
       <c r="F38" t="n">
-        <v>28836.9805478125</v>
+        <v>29199.5701194392</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>12785</v>
       </c>
       <c r="I38" t="n">
-        <v>11349.4658412819</v>
+        <v>11596.5596832695</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>21734.4949218972</v>
+        <v>21874.3571650617</v>
       </c>
       <c r="C39" t="n">
-        <v>18496.2339152141</v>
+        <v>18739.4047723807</v>
       </c>
       <c r="D39" t="n">
-        <v>16766.3752424741</v>
+        <v>16328.9986847414</v>
       </c>
       <c r="E39" t="n">
-        <v>25290.9241953793</v>
+        <v>24946.5377704361</v>
       </c>
       <c r="F39" t="n">
-        <v>26997.1932131733</v>
+        <v>26535.8936431405</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>20580</v>
       </c>
       <c r="I39" t="n">
-        <v>1154.49492189716</v>
+        <v>1294.35716506166</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>27809.0260212123</v>
+        <v>27716.9944354714</v>
       </c>
       <c r="C40" t="n">
-        <v>24080.2520722694</v>
+        <v>24335.4559330279</v>
       </c>
       <c r="D40" t="n">
-        <v>21942.9245779206</v>
+        <v>22295.8543021961</v>
       </c>
       <c r="E40" t="n">
-        <v>31146.0092651435</v>
+        <v>31005.0594105477</v>
       </c>
       <c r="F40" t="n">
-        <v>33229.4016264265</v>
+        <v>32780.4731581301</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>23625</v>
       </c>
       <c r="I40" t="n">
-        <v>4184.02602121229</v>
+        <v>4091.99443547141</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1672,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>25886.7310723593</v>
+        <v>25878.8444291839</v>
       </c>
       <c r="C41" t="n">
-        <v>22164.7807574662</v>
+        <v>22278.088181737</v>
       </c>
       <c r="D41" t="n">
-        <v>20181.2867682229</v>
+        <v>19719.5156796098</v>
       </c>
       <c r="E41" t="n">
-        <v>29050.3484723506</v>
+        <v>29541.7616369682</v>
       </c>
       <c r="F41" t="n">
-        <v>30936.5692750879</v>
+        <v>30924.9045619144</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>21597</v>
       </c>
       <c r="I41" t="n">
-        <v>4289.73107235926</v>
+        <v>4281.84442918385</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1704,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>25692.7815224004</v>
+        <v>25715.3315541845</v>
       </c>
       <c r="C42" t="n">
-        <v>21986.1084748383</v>
+        <v>21866.2653691629</v>
       </c>
       <c r="D42" t="n">
-        <v>20345.4297120976</v>
+        <v>20056.1768185906</v>
       </c>
       <c r="E42" t="n">
-        <v>28879.4534948152</v>
+        <v>28903.4111072662</v>
       </c>
       <c r="F42" t="n">
-        <v>31105.6180745998</v>
+        <v>30723.2604424704</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1725,7 @@
         <v>20963</v>
       </c>
       <c r="I42" t="n">
-        <v>4729.78152240042</v>
+        <v>4752.33155418451</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1736,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>24614.4800917458</v>
+        <v>24472.7164663383</v>
       </c>
       <c r="C43" t="n">
-        <v>20807.1476253071</v>
+        <v>20759.6090008841</v>
       </c>
       <c r="D43" t="n">
-        <v>18204.5700502513</v>
+        <v>18555.9268601213</v>
       </c>
       <c r="E43" t="n">
-        <v>28559.2881743403</v>
+        <v>27974.2072234476</v>
       </c>
       <c r="F43" t="n">
-        <v>30369.8436727761</v>
+        <v>29805.3950156876</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1757,7 @@
         <v>19664</v>
       </c>
       <c r="I43" t="n">
-        <v>4950.48009174576</v>
+        <v>4808.71646633833</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1768,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>25500.0223849975</v>
+        <v>25383.8307883446</v>
       </c>
       <c r="C44" t="n">
-        <v>21930.3295351067</v>
+        <v>21649.0635544744</v>
       </c>
       <c r="D44" t="n">
-        <v>19324.9115623552</v>
+        <v>18935.6266169992</v>
       </c>
       <c r="E44" t="n">
-        <v>28995.7856558912</v>
+        <v>28800.8785810185</v>
       </c>
       <c r="F44" t="n">
-        <v>30911.9744684609</v>
+        <v>30690.5882323527</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>22326</v>
       </c>
       <c r="I44" t="n">
-        <v>3174.02238499754</v>
+        <v>3057.83078834463</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1800,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>25095.9614429759</v>
+        <v>25093.36228603</v>
       </c>
       <c r="C45" t="n">
-        <v>21184.6357291286</v>
+        <v>21176.881892406</v>
       </c>
       <c r="D45" t="n">
-        <v>18898.7432841537</v>
+        <v>18551.778605029</v>
       </c>
       <c r="E45" t="n">
-        <v>28658.7170236788</v>
+        <v>28795.5389414766</v>
       </c>
       <c r="F45" t="n">
-        <v>30434.801604167</v>
+        <v>30360.3617630527</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,7 +1821,7 @@
         <v>23214</v>
       </c>
       <c r="I45" t="n">
-        <v>1881.9614429759</v>
+        <v>1879.36228603002</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1832,19 +1832,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>24068.7215083228</v>
+        <v>24005.6844456241</v>
       </c>
       <c r="C46" t="n">
-        <v>19964.5737028612</v>
+        <v>19968.4220242084</v>
       </c>
       <c r="D46" t="n">
-        <v>18075.4981327923</v>
+        <v>17384.014360033</v>
       </c>
       <c r="E46" t="n">
-        <v>28159.9842916567</v>
+        <v>27612.1274858543</v>
       </c>
       <c r="F46" t="n">
-        <v>29889.1459540056</v>
+        <v>29735.2204749592</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1853,7 @@
         <v>20022</v>
       </c>
       <c r="I46" t="n">
-        <v>4046.72150832276</v>
+        <v>3983.68444562411</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1864,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>23400.7041453531</v>
+        <v>23334.7302789374</v>
       </c>
       <c r="C47" t="n">
-        <v>19414.5123165436</v>
+        <v>19377.3604498983</v>
       </c>
       <c r="D47" t="n">
-        <v>15816.6715807193</v>
+        <v>16810.5722722406</v>
       </c>
       <c r="E47" t="n">
-        <v>27193.7217465659</v>
+        <v>26962.2055862712</v>
       </c>
       <c r="F47" t="n">
-        <v>28671.5062776831</v>
+        <v>29305.708136294</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1885,7 @@
         <v>19466</v>
       </c>
       <c r="I47" t="n">
-        <v>3934.70414535306</v>
+        <v>3868.73027893737</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>24760.488397494</v>
+        <v>24796.4424458738</v>
       </c>
       <c r="C48" t="n">
-        <v>20884.2067340427</v>
+        <v>20856.3957262833</v>
       </c>
       <c r="D48" t="n">
-        <v>17703.9225079238</v>
+        <v>17908.1709594145</v>
       </c>
       <c r="E48" t="n">
-        <v>28466.3341314607</v>
+        <v>28547.3897285208</v>
       </c>
       <c r="F48" t="n">
-        <v>30926.6522434795</v>
+        <v>30765.9442937751</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1917,7 @@
         <v>20280</v>
       </c>
       <c r="I48" t="n">
-        <v>4480.48839749402</v>
+        <v>4516.44244587378</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1928,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>24686.3550204892</v>
+        <v>24672.3069732363</v>
       </c>
       <c r="C49" t="n">
-        <v>20100.8847887018</v>
+        <v>20253.3872107104</v>
       </c>
       <c r="D49" t="n">
-        <v>18145.0767599002</v>
+        <v>18195.434640891</v>
       </c>
       <c r="E49" t="n">
-        <v>28684.3063534972</v>
+        <v>28442.5558634247</v>
       </c>
       <c r="F49" t="n">
-        <v>30315.3638769492</v>
+        <v>30989.9808213445</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>18085</v>
       </c>
       <c r="I49" t="n">
-        <v>6601.35502048915</v>
+        <v>6587.30697323631</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/data/forecast/Hepatitis C.xlsx
+++ b/outcome/appendix/data/forecast/Hepatitis C.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -424,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>21943.0027336559</v>
+        <v>21735.8408752963</v>
       </c>
       <c r="C2" t="n">
-        <v>20164.2177313617</v>
+        <v>19745.1139951685</v>
       </c>
       <c r="D2" t="n">
-        <v>19485.9701533883</v>
+        <v>18937.5220485182</v>
       </c>
       <c r="E2" t="n">
-        <v>23630.8510219101</v>
+        <v>23645.3787889486</v>
       </c>
       <c r="F2" t="n">
-        <v>24436.9055404602</v>
+        <v>24537.7095203898</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +448,7 @@
         <v>17287</v>
       </c>
       <c r="I2" t="n">
-        <v>4656.00273365589</v>
+        <v>4448.84087529631</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>19444.1654196348</v>
+        <v>18598.2468153641</v>
       </c>
       <c r="C3" t="n">
-        <v>17749.4459993613</v>
+        <v>16396.0504114775</v>
       </c>
       <c r="D3" t="n">
-        <v>16857.4160224626</v>
+        <v>15608.0272199981</v>
       </c>
       <c r="E3" t="n">
-        <v>21190.1245750924</v>
+        <v>20777.0294557534</v>
       </c>
       <c r="F3" t="n">
-        <v>22180.9312890714</v>
+        <v>21594.242569046</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +480,7 @@
         <v>9068</v>
       </c>
       <c r="I3" t="n">
-        <v>10376.1654196348</v>
+        <v>9530.24681536411</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>25527.1982810688</v>
+        <v>25048.389592489</v>
       </c>
       <c r="C4" t="n">
-        <v>23919.4957971762</v>
+        <v>22466.0072435146</v>
       </c>
       <c r="D4" t="n">
-        <v>22951.1428209698</v>
+        <v>21682.9941014732</v>
       </c>
       <c r="E4" t="n">
-        <v>27312.4061598422</v>
+        <v>27014.3916716929</v>
       </c>
       <c r="F4" t="n">
-        <v>27975.2707080679</v>
+        <v>27841.8086674748</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +512,7 @@
         <v>16718</v>
       </c>
       <c r="I4" t="n">
-        <v>8809.19828106884</v>
+        <v>8330.38959248903</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>23544.9630493988</v>
+        <v>23269.0312611428</v>
       </c>
       <c r="C5" t="n">
-        <v>21895.7869453906</v>
+        <v>21352.098593559</v>
       </c>
       <c r="D5" t="n">
-        <v>21254.2120268862</v>
+        <v>20445.5696829856</v>
       </c>
       <c r="E5" t="n">
-        <v>25040.0455411638</v>
+        <v>25327.2267896421</v>
       </c>
       <c r="F5" t="n">
-        <v>25937.9958866742</v>
+        <v>26313.5707677949</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +544,7 @@
         <v>20179</v>
       </c>
       <c r="I5" t="n">
-        <v>3365.96304939877</v>
+        <v>3090.03126114283</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>23365.5369954327</v>
+        <v>23096.2788976627</v>
       </c>
       <c r="C6" t="n">
-        <v>21664.5456868561</v>
+        <v>21095.8775207282</v>
       </c>
       <c r="D6" t="n">
-        <v>20810.0604225925</v>
+        <v>20163.8963572955</v>
       </c>
       <c r="E6" t="n">
-        <v>25085.019293077</v>
+        <v>25148.0288728717</v>
       </c>
       <c r="F6" t="n">
-        <v>25662.6879149145</v>
+        <v>26065.0993750764</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +576,7 @@
         <v>19821</v>
       </c>
       <c r="I6" t="n">
-        <v>3544.53699543271</v>
+        <v>3275.27889766272</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>22226.7849763823</v>
+        <v>21900.9304682256</v>
       </c>
       <c r="C7" t="n">
-        <v>20498.7138479725</v>
+        <v>19516.728482912</v>
       </c>
       <c r="D7" t="n">
-        <v>19494.3327295576</v>
+        <v>18558.8059275193</v>
       </c>
       <c r="E7" t="n">
-        <v>23849.372764747</v>
+        <v>24545.048255941</v>
       </c>
       <c r="F7" t="n">
-        <v>24832.7036331142</v>
+        <v>25305.8259689577</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +608,7 @@
         <v>20367</v>
       </c>
       <c r="I7" t="n">
-        <v>1859.7849763823</v>
+        <v>1533.93046822558</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>23218.4974158555</v>
+        <v>22938.3561717216</v>
       </c>
       <c r="C8" t="n">
-        <v>21604.9578417911</v>
+        <v>20204.4821120793</v>
       </c>
       <c r="D8" t="n">
-        <v>20573.5241597906</v>
+        <v>19199.7444020294</v>
       </c>
       <c r="E8" t="n">
-        <v>24885.7779335468</v>
+        <v>26326.4492286277</v>
       </c>
       <c r="F8" t="n">
-        <v>25908.9385935614</v>
+        <v>27362.7931465747</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +640,7 @@
         <v>20520</v>
       </c>
       <c r="I8" t="n">
-        <v>2698.49741585553</v>
+        <v>2418.35617172163</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>22699.4038450324</v>
+        <v>22447.8871329878</v>
       </c>
       <c r="C9" t="n">
-        <v>20877.002770218</v>
+        <v>19656.0509612871</v>
       </c>
       <c r="D9" t="n">
-        <v>20358.3153339768</v>
+        <v>18620.9994324935</v>
       </c>
       <c r="E9" t="n">
-        <v>24634.1157206144</v>
+        <v>25709.2162675811</v>
       </c>
       <c r="F9" t="n">
-        <v>25631.3486463105</v>
+        <v>26767.6665514418</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +672,7 @@
         <v>20520</v>
       </c>
       <c r="I9" t="n">
-        <v>2179.40384503238</v>
+        <v>1927.88713298779</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>21750.8754924585</v>
+        <v>21139.3430233513</v>
       </c>
       <c r="C10" t="n">
-        <v>19861.06203499</v>
+        <v>18551.0766472437</v>
       </c>
       <c r="D10" t="n">
-        <v>18835.2246203277</v>
+        <v>17487.5632693275</v>
       </c>
       <c r="E10" t="n">
-        <v>23732.7788346083</v>
+        <v>23828.1017581937</v>
       </c>
       <c r="F10" t="n">
-        <v>24402.5830621441</v>
+        <v>24884.0387008507</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,10 +704,10 @@
         <v>21538</v>
       </c>
       <c r="I10" t="n">
-        <v>212.875492458497</v>
+        <v>-398.656976648723</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -712,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>21012.2132640794</v>
+        <v>20427.9046322943</v>
       </c>
       <c r="C11" t="n">
-        <v>19098.4939052091</v>
+        <v>17423.0755617921</v>
       </c>
       <c r="D11" t="n">
-        <v>18070.526713179</v>
+        <v>16325.7294774694</v>
       </c>
       <c r="E11" t="n">
-        <v>22707.3799552914</v>
+        <v>23678.2501613763</v>
       </c>
       <c r="F11" t="n">
-        <v>23860.2438967538</v>
+        <v>24749.4900074057</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +736,7 @@
         <v>20067</v>
       </c>
       <c r="I11" t="n">
-        <v>945.213264079393</v>
+        <v>360.90463229434</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>22375.0962019647</v>
+        <v>21738.6156291595</v>
       </c>
       <c r="C12" t="n">
-        <v>20265.6757034489</v>
+        <v>19330.2879046991</v>
       </c>
       <c r="D12" t="n">
-        <v>19431.2839078336</v>
+        <v>18202.8402302046</v>
       </c>
       <c r="E12" t="n">
-        <v>24375.5729631666</v>
+        <v>23839.5457404454</v>
       </c>
       <c r="F12" t="n">
-        <v>25732.4004660116</v>
+        <v>24717.3342889503</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +768,7 @@
         <v>20801</v>
       </c>
       <c r="I12" t="n">
-        <v>1574.09620196473</v>
+        <v>937.615629159453</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>22289.4554558941</v>
+        <v>21353.7020472604</v>
       </c>
       <c r="C13" t="n">
-        <v>20294.0717806701</v>
+        <v>19119.8259228008</v>
       </c>
       <c r="D13" t="n">
-        <v>19045.8882148895</v>
+        <v>17964.4504401853</v>
       </c>
       <c r="E13" t="n">
-        <v>24181.826826259</v>
+        <v>23484.9384032893</v>
       </c>
       <c r="F13" t="n">
-        <v>25233.8773915165</v>
+        <v>24640.3138859048</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +800,7 @@
         <v>20438</v>
       </c>
       <c r="I13" t="n">
-        <v>1851.45545589407</v>
+        <v>915.702047260354</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>22563.7449714738</v>
+        <v>21883.9778877178</v>
       </c>
       <c r="C14" t="n">
-        <v>20550.7688609637</v>
+        <v>19369.227630047</v>
       </c>
       <c r="D14" t="n">
-        <v>19209.4478739384</v>
+        <v>18179.7234483503</v>
       </c>
       <c r="E14" t="n">
-        <v>24466.5593942215</v>
+        <v>24730.750309644</v>
       </c>
       <c r="F14" t="n">
-        <v>25866.4247475166</v>
+        <v>25895.1243438659</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +832,7 @@
         <v>18258</v>
       </c>
       <c r="I14" t="n">
-        <v>4305.74497147376</v>
+        <v>3625.97788771784</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>20219.9880831584</v>
+        <v>18827.9296346638</v>
       </c>
       <c r="C15" t="n">
-        <v>18242.524390731</v>
+        <v>15441.0154807696</v>
       </c>
       <c r="D15" t="n">
-        <v>16913.6016906779</v>
+        <v>14223.8402058746</v>
       </c>
       <c r="E15" t="n">
-        <v>22246.3683752906</v>
+        <v>21554.3565855981</v>
       </c>
       <c r="F15" t="n">
-        <v>23231.4623927359</v>
+        <v>22756.4082574461</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +864,7 @@
         <v>14714</v>
       </c>
       <c r="I15" t="n">
-        <v>5505.98808315843</v>
+        <v>4113.92963466383</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>26214.7080200384</v>
+        <v>25250.4690144223</v>
       </c>
       <c r="C16" t="n">
-        <v>24049.3564790056</v>
+        <v>22158.9369586757</v>
       </c>
       <c r="D16" t="n">
-        <v>22923.9741399222</v>
+        <v>20693.8489668743</v>
       </c>
       <c r="E16" t="n">
-        <v>28135.9245342946</v>
+        <v>28005.9216655329</v>
       </c>
       <c r="F16" t="n">
-        <v>29128.019010204</v>
+        <v>29251.2103889345</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +896,7 @@
         <v>23776</v>
       </c>
       <c r="I16" t="n">
-        <v>2438.70802003843</v>
+        <v>1474.46901442229</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>24332.669594912</v>
+        <v>23459.636382132</v>
       </c>
       <c r="C17" t="n">
-        <v>22016.6908000191</v>
+        <v>20682.2040790993</v>
       </c>
       <c r="D17" t="n">
-        <v>21020.7293119314</v>
+        <v>19408.2360958511</v>
       </c>
       <c r="E17" t="n">
-        <v>26473.0223823839</v>
+        <v>25719.8169897453</v>
       </c>
       <c r="F17" t="n">
-        <v>27766.2757063234</v>
+        <v>26846.3285856994</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +928,7 @@
         <v>22613</v>
       </c>
       <c r="I17" t="n">
-        <v>1719.66959491196</v>
+        <v>846.636382132048</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>24213.3721157479</v>
+        <v>23371.023562637</v>
       </c>
       <c r="C18" t="n">
-        <v>22196.1109176684</v>
+        <v>20540.2358863007</v>
       </c>
       <c r="D18" t="n">
-        <v>20858.1890385124</v>
+        <v>19239.0711301064</v>
       </c>
       <c r="E18" t="n">
-        <v>26108.382218681</v>
+        <v>25865.8320249085</v>
       </c>
       <c r="F18" t="n">
-        <v>27221.7662014171</v>
+        <v>26867.6727917544</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +960,7 @@
         <v>21254</v>
       </c>
       <c r="I18" t="n">
-        <v>2959.3721157479</v>
+        <v>2117.02356263697</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>23010.9697601594</v>
+        <v>22347.0731245882</v>
       </c>
       <c r="C19" t="n">
-        <v>20688.0574117382</v>
+        <v>19121.0849870625</v>
       </c>
       <c r="D19" t="n">
-        <v>19177.5612638914</v>
+        <v>17793.4802833374</v>
       </c>
       <c r="E19" t="n">
-        <v>25125.7995079997</v>
+        <v>25801.8349970436</v>
       </c>
       <c r="F19" t="n">
-        <v>26767.1614733088</v>
+        <v>26774.3433706576</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +992,7 @@
         <v>20937</v>
       </c>
       <c r="I19" t="n">
-        <v>2073.96976015942</v>
+        <v>1410.07312458815</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>24060.0845330893</v>
+        <v>23176.2144172301</v>
       </c>
       <c r="C20" t="n">
-        <v>21888.9078791353</v>
+        <v>20036.4100103516</v>
       </c>
       <c r="D20" t="n">
-        <v>20476.1869730322</v>
+        <v>18682.3286793883</v>
       </c>
       <c r="E20" t="n">
-        <v>26257.895905041</v>
+        <v>26331.9222218291</v>
       </c>
       <c r="F20" t="n">
-        <v>27261.8641533812</v>
+        <v>27308.9410657253</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1024,7 @@
         <v>22940</v>
       </c>
       <c r="I20" t="n">
-        <v>1120.08453308931</v>
+        <v>236.214417230069</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>23548.6964352832</v>
+        <v>22797.8625835913</v>
       </c>
       <c r="C21" t="n">
-        <v>21312.0477807444</v>
+        <v>19634.6342381439</v>
       </c>
       <c r="D21" t="n">
-        <v>19542.2587229446</v>
+        <v>18254.8301098768</v>
       </c>
       <c r="E21" t="n">
-        <v>25585.3666072908</v>
+        <v>26195.8095560935</v>
       </c>
       <c r="F21" t="n">
-        <v>26656.6807164319</v>
+        <v>27264.2442735614</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1056,7 @@
         <v>20001</v>
       </c>
       <c r="I21" t="n">
-        <v>3547.69643528323</v>
+        <v>2796.86258359126</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>22442.8464929532</v>
+        <v>21622.5116772503</v>
       </c>
       <c r="C22" t="n">
-        <v>19938.7905861823</v>
+        <v>18171.6991208983</v>
       </c>
       <c r="D22" t="n">
-        <v>18852.2831699498</v>
+        <v>16766.7385286946</v>
       </c>
       <c r="E22" t="n">
-        <v>24658.0432601558</v>
+        <v>25660.277253019</v>
       </c>
       <c r="F22" t="n">
-        <v>25682.8035217822</v>
+        <v>26658.8024130054</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1088,7 @@
         <v>20125</v>
       </c>
       <c r="I22" t="n">
-        <v>2317.84649295316</v>
+        <v>1497.51167725027</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>21889.9571699873</v>
+        <v>20944.8392474819</v>
       </c>
       <c r="C23" t="n">
-        <v>19514.2021914127</v>
+        <v>17070.862979493</v>
       </c>
       <c r="D23" t="n">
-        <v>17642.1712038239</v>
+        <v>15641.0369622813</v>
       </c>
       <c r="E23" t="n">
-        <v>24301.0830318275</v>
+        <v>25499.7640508617</v>
       </c>
       <c r="F23" t="n">
-        <v>25508.6472210251</v>
+        <v>26538.4262801564</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1120,7 @@
         <v>19157</v>
       </c>
       <c r="I23" t="n">
-        <v>2732.95716998727</v>
+        <v>1787.83924748186</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>23090.2400378609</v>
+        <v>22215.9481215471</v>
       </c>
       <c r="C24" t="n">
-        <v>20545.3546732963</v>
+        <v>19058.2874500587</v>
       </c>
       <c r="D24" t="n">
-        <v>19326.7919459802</v>
+        <v>17604.0572007147</v>
       </c>
       <c r="E24" t="n">
-        <v>25667.7083755334</v>
+        <v>25426.1980432866</v>
       </c>
       <c r="F24" t="n">
-        <v>26647.6178537264</v>
+        <v>26457.2411715174</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1152,7 @@
         <v>19858</v>
       </c>
       <c r="I24" t="n">
-        <v>3232.24003786087</v>
+        <v>2357.94812154709</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>23086.2332955222</v>
+        <v>21701.2477344047</v>
       </c>
       <c r="C25" t="n">
-        <v>20495.0489805583</v>
+        <v>18457.9109032055</v>
       </c>
       <c r="D25" t="n">
-        <v>19432.2196678551</v>
+        <v>16979.7233999668</v>
       </c>
       <c r="E25" t="n">
-        <v>25514.9994611392</v>
+        <v>24653.8639503763</v>
       </c>
       <c r="F25" t="n">
-        <v>26622.8237564221</v>
+        <v>25665.665163776</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1184,7 @@
         <v>20895</v>
       </c>
       <c r="I25" t="n">
-        <v>2191.23329552222</v>
+        <v>806.247734404744</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>23478.7197329967</v>
+        <v>22282.5237939733</v>
       </c>
       <c r="C26" t="n">
-        <v>21096.3024576265</v>
+        <v>19016.4421614478</v>
       </c>
       <c r="D26" t="n">
-        <v>19690.1074338882</v>
+        <v>17478.1812579085</v>
       </c>
       <c r="E26" t="n">
-        <v>25933.0915518984</v>
+        <v>25735.9633860304</v>
       </c>
       <c r="F26" t="n">
-        <v>26790.4159311143</v>
+        <v>27098.6843178004</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1216,7 @@
         <v>18704</v>
       </c>
       <c r="I26" t="n">
-        <v>4774.71973299671</v>
+        <v>3578.52379397329</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>21082.0131041987</v>
+        <v>19100.5107952779</v>
       </c>
       <c r="C27" t="n">
-        <v>18428.1892202507</v>
+        <v>14781.9155252193</v>
       </c>
       <c r="D27" t="n">
-        <v>17206.8339183532</v>
+        <v>13222.6075179588</v>
       </c>
       <c r="E27" t="n">
-        <v>23493.4352281753</v>
+        <v>23317.5520702456</v>
       </c>
       <c r="F27" t="n">
-        <v>24772.1893175034</v>
+        <v>25028.687712379</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1248,7 @@
         <v>16733</v>
       </c>
       <c r="I27" t="n">
-        <v>4349.01310419869</v>
+        <v>2367.51079527794</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>26992.888508662</v>
+        <v>25396.7723008696</v>
       </c>
       <c r="C28" t="n">
-        <v>24169.6798404746</v>
+        <v>22206.3674293284</v>
       </c>
       <c r="D28" t="n">
-        <v>21960.4676849229</v>
+        <v>20517.5132411741</v>
       </c>
       <c r="E28" t="n">
-        <v>29841.2932553088</v>
+        <v>28705.527691555</v>
       </c>
       <c r="F28" t="n">
-        <v>30921.7984415321</v>
+        <v>30296.6436573317</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1280,7 @@
         <v>21722</v>
       </c>
       <c r="I28" t="n">
-        <v>5270.88850866205</v>
+        <v>3674.77230086959</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>25211.0141512878</v>
+        <v>23665.3158946232</v>
       </c>
       <c r="C29" t="n">
-        <v>22274.5615216799</v>
+        <v>20222.3258092444</v>
       </c>
       <c r="D29" t="n">
-        <v>20751.6628632121</v>
+        <v>18595.1480530793</v>
       </c>
       <c r="E29" t="n">
-        <v>27903.2822155692</v>
+        <v>26369.9497101175</v>
       </c>
       <c r="F29" t="n">
-        <v>29310.4121123129</v>
+        <v>27997.1274662827</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1312,7 @@
         <v>17712</v>
       </c>
       <c r="I29" t="n">
-        <v>7499.01415128777</v>
+        <v>5953.31589462315</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>24937.5318633132</v>
+        <v>23585.9324040061</v>
       </c>
       <c r="C30" t="n">
-        <v>22109.9153680409</v>
+        <v>20086.1250380915</v>
       </c>
       <c r="D30" t="n">
-        <v>20635.7574920127</v>
+        <v>18429.8098970653</v>
       </c>
       <c r="E30" t="n">
-        <v>27534.9644361192</v>
+        <v>26343.8325994019</v>
       </c>
       <c r="F30" t="n">
-        <v>28887.392399352</v>
+        <v>28000.1477404281</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1344,7 @@
         <v>18720</v>
       </c>
       <c r="I30" t="n">
-        <v>6217.53186331319</v>
+        <v>4865.93240400606</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>23763.2163953297</v>
+        <v>22613.832217594</v>
       </c>
       <c r="C31" t="n">
-        <v>20845.206583704</v>
+        <v>18643.9359303859</v>
       </c>
       <c r="D31" t="n">
-        <v>19247.1598490891</v>
+        <v>16958.8017459432</v>
       </c>
       <c r="E31" t="n">
-        <v>26456.8894452363</v>
+        <v>26180.7453439334</v>
       </c>
       <c r="F31" t="n">
-        <v>27791.1807549708</v>
+        <v>27371.7184952697</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1376,7 @@
         <v>20925</v>
       </c>
       <c r="I31" t="n">
-        <v>2838.2163953297</v>
+        <v>1688.83221759401</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>24802.7129915198</v>
+        <v>23361.8592070619</v>
       </c>
       <c r="C32" t="n">
-        <v>21944.4555915607</v>
+        <v>19741.8303127773</v>
       </c>
       <c r="D32" t="n">
-        <v>19942.8037758264</v>
+        <v>18025.2737680979</v>
       </c>
       <c r="E32" t="n">
-        <v>27441.1774886221</v>
+        <v>26633.7663349764</v>
       </c>
       <c r="F32" t="n">
-        <v>28828.8226299865</v>
+        <v>27943.6918594999</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1408,7 @@
         <v>21867</v>
       </c>
       <c r="I32" t="n">
-        <v>2935.71299151981</v>
+        <v>1494.85920706189</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>24370.1544565008</v>
+        <v>23031.9594453083</v>
       </c>
       <c r="C33" t="n">
-        <v>21069.7661162763</v>
+        <v>19401.9335138992</v>
       </c>
       <c r="D33" t="n">
-        <v>19507.8506747289</v>
+        <v>17656.5528472828</v>
       </c>
       <c r="E33" t="n">
-        <v>27178.1112861714</v>
+        <v>26266.0450876497</v>
       </c>
       <c r="F33" t="n">
-        <v>28342.113061926</v>
+        <v>27741.519307496</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1440,7 @@
         <v>21891</v>
       </c>
       <c r="I33" t="n">
-        <v>2479.15445650077</v>
+        <v>1140.95944530825</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>23126.3987906599</v>
+        <v>21958.6724517904</v>
       </c>
       <c r="C34" t="n">
-        <v>19964.1128969358</v>
+        <v>17701.8076638423</v>
       </c>
       <c r="D34" t="n">
-        <v>18375.9828686552</v>
+        <v>15928.2222413165</v>
       </c>
       <c r="E34" t="n">
-        <v>26211.0810138729</v>
+        <v>26025.4053046876</v>
       </c>
       <c r="F34" t="n">
-        <v>27530.2125530438</v>
+        <v>27133.9642006448</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1472,7 @@
         <v>18740</v>
       </c>
       <c r="I34" t="n">
-        <v>4386.39879065994</v>
+        <v>3218.67245179039</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>22641.1010652851</v>
+        <v>21316.9036287046</v>
       </c>
       <c r="C35" t="n">
-        <v>19438.0677747911</v>
+        <v>16621.4753107251</v>
       </c>
       <c r="D35" t="n">
-        <v>17599.3976585032</v>
+        <v>14819.2122993009</v>
       </c>
       <c r="E35" t="n">
-        <v>25571.268323574</v>
+        <v>26089.857221634</v>
       </c>
       <c r="F35" t="n">
-        <v>27002.1391245049</v>
+        <v>27124.8926835222</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1504,7 @@
         <v>16020</v>
       </c>
       <c r="I35" t="n">
-        <v>6621.10106528507</v>
+        <v>5296.9036287046</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>23961.4767288876</v>
+        <v>22554.750536224</v>
       </c>
       <c r="C36" t="n">
-        <v>20751.9790775295</v>
+        <v>18644.7427504332</v>
       </c>
       <c r="D36" t="n">
-        <v>19581.4947848291</v>
+        <v>16814.6574725573</v>
       </c>
       <c r="E36" t="n">
-        <v>26721.1903774341</v>
+        <v>26136.1717156557</v>
       </c>
       <c r="F36" t="n">
-        <v>28645.0553039368</v>
+        <v>27389.0547944254</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1536,7 @@
         <v>15057</v>
       </c>
       <c r="I36" t="n">
-        <v>8904.4767288876</v>
+        <v>7497.75053622398</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>23906.7517922526</v>
+        <v>22118.8945266715</v>
       </c>
       <c r="C37" t="n">
-        <v>20668.845704198</v>
+        <v>17812.3060852737</v>
       </c>
       <c r="D37" t="n">
-        <v>18756.554977051</v>
+        <v>15954.9911169537</v>
       </c>
       <c r="E37" t="n">
-        <v>27040.7966043124</v>
+        <v>25558.6081442542</v>
       </c>
       <c r="F37" t="n">
-        <v>28783.3688507529</v>
+        <v>26883.3995754037</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1568,7 @@
         <v>11050</v>
       </c>
       <c r="I37" t="n">
-        <v>12856.7517922526</v>
+        <v>11068.8945266715</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>24381.5596832695</v>
+        <v>22589.1330013174</v>
       </c>
       <c r="C38" t="n">
-        <v>21050.3134229285</v>
+        <v>18528.6520709245</v>
       </c>
       <c r="D38" t="n">
-        <v>19180.4303619456</v>
+        <v>16590.7056300912</v>
       </c>
       <c r="E38" t="n">
-        <v>27378.2266404504</v>
+        <v>26156.6199777435</v>
       </c>
       <c r="F38" t="n">
-        <v>29199.5701194392</v>
+        <v>27788.3344518779</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1600,7 @@
         <v>12785</v>
       </c>
       <c r="I38" t="n">
-        <v>11596.5596832695</v>
+        <v>9804.13300131744</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>21874.3571650617</v>
+        <v>19483.1211747607</v>
       </c>
       <c r="C39" t="n">
-        <v>18739.4047723807</v>
+        <v>14122.0960488331</v>
       </c>
       <c r="D39" t="n">
-        <v>16328.9986847414</v>
+        <v>12160.5197124304</v>
       </c>
       <c r="E39" t="n">
-        <v>24946.5377704361</v>
+        <v>24697.0971717143</v>
       </c>
       <c r="F39" t="n">
-        <v>26535.8936431405</v>
+        <v>26017.7930577099</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,10 +1632,10 @@
         <v>20580</v>
       </c>
       <c r="I39" t="n">
-        <v>1294.35716506166</v>
+        <v>-1096.87882523934</v>
       </c>
       <c r="J39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40">
@@ -1640,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>27716.9944354714</v>
+        <v>25501.8463281949</v>
       </c>
       <c r="C40" t="n">
-        <v>24335.4559330279</v>
+        <v>22048.2296183926</v>
       </c>
       <c r="D40" t="n">
-        <v>22295.8543021961</v>
+        <v>20047.7021606513</v>
       </c>
       <c r="E40" t="n">
-        <v>31005.0594105477</v>
+        <v>29606.4022685325</v>
       </c>
       <c r="F40" t="n">
-        <v>32780.4731581301</v>
+        <v>31606.9297262738</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1664,7 @@
         <v>23625</v>
       </c>
       <c r="I40" t="n">
-        <v>4091.99443547141</v>
+        <v>1876.84632819486</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1672,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>25878.8444291839</v>
+        <v>23836.6144442991</v>
       </c>
       <c r="C41" t="n">
-        <v>22278.088181737</v>
+        <v>19645.6403831721</v>
       </c>
       <c r="D41" t="n">
-        <v>19719.5156796098</v>
+        <v>17599.7092328768</v>
       </c>
       <c r="E41" t="n">
-        <v>29541.7616369682</v>
+        <v>27375.3522671022</v>
       </c>
       <c r="F41" t="n">
-        <v>30924.9045619144</v>
+        <v>29421.2834173976</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1693,7 +1696,7 @@
         <v>21597</v>
       </c>
       <c r="I41" t="n">
-        <v>4281.84442918385</v>
+        <v>2239.61444429908</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1704,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>25715.3315541845</v>
+        <v>23702.902250005</v>
       </c>
       <c r="C42" t="n">
-        <v>21866.2653691629</v>
+        <v>19504.0281457526</v>
       </c>
       <c r="D42" t="n">
-        <v>20056.1768185906</v>
+        <v>17422.627103412</v>
       </c>
       <c r="E42" t="n">
-        <v>28903.4111072662</v>
+        <v>27367.7484717677</v>
       </c>
       <c r="F42" t="n">
-        <v>30723.2604424704</v>
+        <v>29449.1495141083</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1725,7 +1728,7 @@
         <v>20963</v>
       </c>
       <c r="I42" t="n">
-        <v>4752.33155418451</v>
+        <v>2739.902250005</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1736,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>24472.7164663383</v>
+        <v>22779.9383254822</v>
       </c>
       <c r="C43" t="n">
-        <v>20759.6090008841</v>
+        <v>18038.8229192996</v>
       </c>
       <c r="D43" t="n">
-        <v>18555.9268601213</v>
+        <v>15922.3112644508</v>
       </c>
       <c r="E43" t="n">
-        <v>27974.2072234476</v>
+        <v>26476.8077598535</v>
       </c>
       <c r="F43" t="n">
-        <v>29805.3950156876</v>
+        <v>28151.7059518461</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1757,7 +1760,7 @@
         <v>19664</v>
       </c>
       <c r="I43" t="n">
-        <v>4808.71646633833</v>
+        <v>3115.93832548223</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1768,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>25383.8307883446</v>
+        <v>23506.1841064631</v>
       </c>
       <c r="C44" t="n">
-        <v>21649.0635544744</v>
+        <v>19224.8813225988</v>
       </c>
       <c r="D44" t="n">
-        <v>18935.6266169992</v>
+        <v>17069.3258506108</v>
       </c>
       <c r="E44" t="n">
-        <v>28800.8785810185</v>
+        <v>27368.7637528021</v>
       </c>
       <c r="F44" t="n">
-        <v>30690.5882323527</v>
+        <v>29524.31922479</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1789,7 +1792,7 @@
         <v>22326</v>
       </c>
       <c r="I44" t="n">
-        <v>3057.83078834463</v>
+        <v>1180.18410646308</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1800,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>25093.36228603</v>
+        <v>23192.3675290866</v>
       </c>
       <c r="C45" t="n">
-        <v>21176.881892406</v>
+        <v>18909.3589626022</v>
       </c>
       <c r="D45" t="n">
-        <v>18551.778605029</v>
+        <v>16718.4114541304</v>
       </c>
       <c r="E45" t="n">
-        <v>28795.5389414766</v>
+        <v>27186.9556895775</v>
       </c>
       <c r="F45" t="n">
-        <v>30360.3617630527</v>
+        <v>29377.9031980493</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1821,10 +1824,10 @@
         <v>23214</v>
       </c>
       <c r="I45" t="n">
-        <v>1879.36228603002</v>
+        <v>-21.6324709133623</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1832,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>24005.6844456241</v>
+        <v>22159.6130767016</v>
       </c>
       <c r="C46" t="n">
-        <v>19968.4220242084</v>
+        <v>17073.139486037</v>
       </c>
       <c r="D46" t="n">
-        <v>17384.014360033</v>
+        <v>14847.5931973567</v>
       </c>
       <c r="E46" t="n">
-        <v>27612.1274858543</v>
+        <v>26429.7432631196</v>
       </c>
       <c r="F46" t="n">
-        <v>29735.2204749592</v>
+        <v>27706.9998049161</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1853,7 +1856,7 @@
         <v>20022</v>
       </c>
       <c r="I46" t="n">
-        <v>3983.68444562411</v>
+        <v>2137.61307670163</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1864,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>23334.7302789374</v>
+        <v>21532.7791270409</v>
       </c>
       <c r="C47" t="n">
-        <v>19377.3604498983</v>
+        <v>15994.8076938924</v>
       </c>
       <c r="D47" t="n">
-        <v>16810.5722722406</v>
+        <v>13733.8532248426</v>
       </c>
       <c r="E47" t="n">
-        <v>26962.2055862712</v>
+        <v>26473.8635949302</v>
       </c>
       <c r="F47" t="n">
-        <v>29305.708136294</v>
+        <v>27577.3388687957</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1885,7 +1888,7 @@
         <v>19466</v>
       </c>
       <c r="I47" t="n">
-        <v>3868.73027893737</v>
+        <v>2066.77912704086</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1896,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>24796.4424458738</v>
+        <v>22757.0824921726</v>
       </c>
       <c r="C48" t="n">
-        <v>20856.3957262833</v>
+        <v>18028.7026584344</v>
       </c>
       <c r="D48" t="n">
-        <v>17908.1709594145</v>
+        <v>15733.4788300785</v>
       </c>
       <c r="E48" t="n">
-        <v>28547.3897285208</v>
+        <v>26700.2646998847</v>
       </c>
       <c r="F48" t="n">
-        <v>30765.9442937751</v>
+        <v>28995.4885282406</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1917,7 +1920,7 @@
         <v>20280</v>
       </c>
       <c r="I48" t="n">
-        <v>4516.44244587378</v>
+        <v>2477.08249217262</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1928,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>24672.3069732363</v>
+        <v>22425.1056930468</v>
       </c>
       <c r="C49" t="n">
-        <v>20253.3872107104</v>
+        <v>17063.6333671018</v>
       </c>
       <c r="D49" t="n">
-        <v>18195.434640891</v>
+        <v>14734.9168791253</v>
       </c>
       <c r="E49" t="n">
-        <v>28442.5558634247</v>
+        <v>26088.0136618555</v>
       </c>
       <c r="F49" t="n">
-        <v>30989.9808213445</v>
+        <v>28190.4501766932</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1949,7 +1952,7 @@
         <v>18085</v>
       </c>
       <c r="I49" t="n">
-        <v>6587.30697323631</v>
+        <v>4340.10569304676</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
